--- a/teaching/traditional_assets/database/data/nigeria/nigeria_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/nigeria/nigeria_banks_regional.xlsx
@@ -603,82 +603,85 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.31</v>
+        <v>7.94</v>
       </c>
       <c r="L2">
-        <v>0.200377358490566</v>
+        <v>0.2391566265060241</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.04529411764705882</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.2909319899244333</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.04529411764705882</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.2909319899244333</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>78.59999999999999</v>
+        <v>48.7</v>
       </c>
       <c r="V2">
-        <v>1.556435643564356</v>
+        <v>0.9549019607843138</v>
       </c>
       <c r="W2">
-        <v>0.1390052356020942</v>
+        <v>0.2193370165745856</v>
       </c>
       <c r="X2">
-        <v>0.09059164698871164</v>
+        <v>0.09563064629785738</v>
       </c>
       <c r="Y2">
-        <v>0.04841358861338257</v>
+        <v>0.1237063702767282</v>
       </c>
       <c r="Z2">
-        <v>-1.866197183098592</v>
+        <v>-3.223300970873792</v>
       </c>
       <c r="AA2">
         <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.0772061709873326</v>
+        <v>0.07579453389138853</v>
       </c>
       <c r="AC2">
-        <v>-0.0772061709873326</v>
+        <v>-0.07579453389138853</v>
       </c>
       <c r="AD2">
-        <v>32.1</v>
+        <v>42.7</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>32.1</v>
+        <v>42.7</v>
       </c>
       <c r="AG2">
-        <v>-46.49999999999999</v>
+        <v>-6</v>
       </c>
       <c r="AH2">
-        <v>0.3886198547215497</v>
+        <v>0.455709711846318</v>
       </c>
       <c r="AI2">
-        <v>0.4699853587115665</v>
+        <v>0.526510480887793</v>
       </c>
       <c r="AJ2">
-        <v>-11.62499999999998</v>
+        <v>-0.1333333333333333</v>
       </c>
       <c r="AK2">
-        <v>4.51456310679612</v>
+        <v>-0.1851851851851852</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -716,82 +719,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>5.31</v>
+        <v>7.94</v>
       </c>
       <c r="L3">
-        <v>0.200377358490566</v>
+        <v>0.2391566265060241</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>2.31</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.04529411764705882</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.2909319899244333</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>2.31</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.04529411764705882</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.2909319899244333</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>78.59999999999999</v>
+        <v>48.7</v>
       </c>
       <c r="V3">
-        <v>1.556435643564356</v>
+        <v>0.9549019607843138</v>
       </c>
       <c r="W3">
-        <v>0.1390052356020942</v>
+        <v>0.2193370165745856</v>
       </c>
       <c r="X3">
-        <v>0.09059164698871164</v>
+        <v>0.09563064629785738</v>
       </c>
       <c r="Y3">
-        <v>0.04841358861338257</v>
+        <v>0.1237063702767282</v>
       </c>
       <c r="Z3">
-        <v>-1.866197183098592</v>
+        <v>-3.223300970873792</v>
       </c>
       <c r="AA3">
         <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.0772061709873326</v>
+        <v>0.07579453389138853</v>
       </c>
       <c r="AC3">
-        <v>-0.0772061709873326</v>
+        <v>-0.07579453389138853</v>
       </c>
       <c r="AD3">
-        <v>32.1</v>
+        <v>42.7</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>32.1</v>
+        <v>42.7</v>
       </c>
       <c r="AG3">
-        <v>-46.49999999999999</v>
+        <v>-6</v>
       </c>
       <c r="AH3">
-        <v>0.3886198547215497</v>
+        <v>0.455709711846318</v>
       </c>
       <c r="AI3">
-        <v>0.4699853587115665</v>
+        <v>0.526510480887793</v>
       </c>
       <c r="AJ3">
-        <v>-11.62499999999998</v>
+        <v>-0.1333333333333333</v>
       </c>
       <c r="AK3">
-        <v>4.51456310679612</v>
+        <v>-0.1851851851851852</v>
       </c>
       <c r="AL3">
         <v>0</v>
